--- a/Data Files/Edit Asset Type.xlsx
+++ b/Data Files/Edit Asset Type.xlsx
@@ -21,7 +21,7 @@
     <t>editAssetNAme</t>
   </si>
   <si>
-    <t>visitot's lauggage bag</t>
+    <t>visitors bicycle</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
